--- a/WMS/upfiles/Book.xlsx
+++ b/WMS/upfiles/Book.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ProductCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,15 +30,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000000000_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000001_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000000_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000001_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductEName</t>
+  </si>
+  <si>
+    <t>CategoryCode</t>
+  </si>
+  <si>
+    <t>FactoryID</t>
+  </si>
+  <si>
+    <t>ModelNo</t>
+  </si>
+  <si>
+    <t>ProductNo</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Propertity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>StandardNo</t>
+  </si>
+  <si>
+    <t>PartNo</t>
+  </si>
+  <si>
+    <t>ValidPeriod</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>WarehouseCode</t>
+  </si>
+  <si>
+    <t>AreaCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡淡的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑟瑟发抖哇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆垛机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,8 +180,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,40 +481,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="14.25" customWidth="1"/>
+    <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="23" max="23" width="17.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>111</v>
+      </c>
+      <c r="L2">
+        <v>123</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
